--- a/テスト用簡易手順書.xlsx
+++ b/テスト用簡易手順書.xlsx
@@ -171,14 +171,14 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -211,7 +211,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,7 +240,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,10 +333,10 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:E24"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.14"/>
@@ -416,125 +424,125 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/テスト用簡易手順書.xlsx
+++ b/テスト用簡易手順書.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">プロトコル</t>
   </si>
   <si>
-    <t xml:space="preserve">投入コマンド</t>
+    <t xml:space="preserve">command</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.10.19</t>
@@ -228,6 +228,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,10 +249,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,13 +330,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.14"/>
@@ -377,172 +377,172 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
